--- a/project-tracking-api-modüller.xlsx
+++ b/project-tracking-api-modüller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENESTEZCAN\Desktop\IQVizyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E64C18-096B-49D5-9F58-D3DB1D3E190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8891B9-0419-4150-A2E6-5F4980014569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61CA7542-0D26-4154-ACCD-45968123EF3F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Proje Yönetim Uygulaması</t>
   </si>
@@ -204,13 +204,16 @@
   </si>
   <si>
     <t>update-comment</t>
+  </si>
+  <si>
+    <t>list-comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +254,14 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,31 +371,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09886D0-750B-4ABA-86D3-578CDB0F3EF5}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,18 +731,19 @@
     <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -745,9 +763,12 @@
         <v>46</v>
       </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -763,9 +784,10 @@
       <c r="F3" s="3"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -779,9 +801,10 @@
       <c r="F4" s="3"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -793,9 +816,10 @@
       <c r="F5" s="3"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -811,9 +835,10 @@
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -828,8 +853,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
@@ -842,8 +867,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -858,8 +883,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
@@ -874,8 +899,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
@@ -888,8 +913,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
@@ -904,8 +929,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -920,8 +945,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -936,8 +961,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -954,8 +979,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
@@ -973,7 +998,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
@@ -989,7 +1014,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1007,7 +1032,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1023,7 +1048,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1039,11 +1064,13 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>18</v>
@@ -1053,7 +1080,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1071,7 +1098,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
@@ -1086,7 +1113,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
@@ -1103,11 +1130,17 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
     </row>
@@ -1119,7 +1152,7 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A6:A14"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/project-tracking-api-modüller.xlsx
+++ b/project-tracking-api-modüller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENESTEZCAN\Desktop\IQVizyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8891B9-0419-4150-A2E6-5F4980014569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD83E5E-F474-497E-8DA1-2EF5D006DB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61CA7542-0D26-4154-ACCD-45968123EF3F}"/>
   </bookViews>
@@ -371,30 +371,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,6 +378,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09886D0-750B-4ABA-86D3-578CDB0F3EF5}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,13 +735,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -763,12 +763,12 @@
         <v>46</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -784,10 +784,10 @@
       <c r="F3" s="3"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="18"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -801,10 +801,10 @@
       <c r="F4" s="3"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -816,10 +816,10 @@
       <c r="F5" s="3"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -838,7 +838,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
@@ -914,7 +914,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -980,7 +980,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1048,7 +1048,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1098,7 +1098,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
@@ -1113,7 +1113,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
